--- a/테이블/전투/기술 공격 데이터 테이블.xlsx
+++ b/테이블/전투/기술 공격 데이터 테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\Project TirgerGhostField\기획\테이블\전투\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882173B9-9702-48C6-8B7C-059962CFB957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF96E736-8AFC-4820-B50B-3790FA88C0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="도메인 정의" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>속성 명칭</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,9 +108,6 @@
     <t>자원 소모량</t>
   </si>
   <si>
-    <t>재사용 대기시간</t>
-  </si>
-  <si>
     <t>Integer</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t>Float[]</t>
   </si>
   <si>
-    <t>Float</t>
-  </si>
-  <si>
     <t>기술 공격의 튜플을 구분하는 Id 정보</t>
   </si>
   <si>
@@ -142,10 +136,6 @@
   </si>
   <si>
     <t>기술 공격을 사용하는데 소모되는 자원 수치값 정보이다.</t>
-  </si>
-  <si>
-    <t>기술 공격 사용 시 재사용하기 위해서 대기해야하는 시간(s) 정보이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>기술 공격 Id 테이블</t>
@@ -542,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H8"/>
+  <dimension ref="B2:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -589,13 +579,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -612,10 +602,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -632,10 +622,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -652,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -672,36 +662,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -742,26 +712,26 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -775,7 +745,7 @@
   <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -794,34 +764,34 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C19B3A-9DE6-4959-8646-89E4535BEFF0}">
   <dimension ref="B1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -871,7 +841,7 @@
       </c>
       <c r="G1" t="str" cm="1">
         <f t="array" aca="1" ref="G1" ca="1">IF(INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1)=0,"속성 없음",INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1))</f>
-        <v>재사용 대기시간</v>
+        <v>속성 없음</v>
       </c>
       <c r="H1" t="str" cm="1">
         <f t="array" aca="1" ref="H1" ca="1">IF(INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1)=0,"속성 없음",INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1))</f>
